--- a/biology/Zoologie/Choerophryne_proboscidea/Choerophryne_proboscidea.xlsx
+++ b/biology/Zoologie/Choerophryne_proboscidea/Choerophryne_proboscidea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Choerophryne proboscidea est une espèce d'amphibiens de la famille des Microhylidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Choerophryne proboscidea est une espèce d'amphibiens de la famille des Microhylidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique de Nouvelle-Guinée. Son aire de répartition concerne la côte nord de l'île, du niveau de la mer jusqu'à 1 450 m d'altitude[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique de Nouvelle-Guinée. Son aire de répartition concerne la côte nord de l'île, du niveau de la mer jusqu'à 1 450 m d'altitude.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Van Kampen, 1914 : Zur Fauna von Nord-Neuguinea. Nach den Sammlungen von Dr. P.N. van Kampen und K. Gjellerup aus den Jahren 1910 und 1911. Amphibien. Zoologische Jahrbücher, Abteilung für Systematik, Geographie und Biologie der Tiere, vol. 37, p. 365-378 (texte intégral).</t>
         </is>
